--- a/Todo-List.xlsx
+++ b/Todo-List.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,38 @@
   </si>
   <si>
     <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用outVo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应表的outVo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseVo的用法需要请教刚哥,byproduct的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果传输错误的参数过来,查不到那我该如何友好提示, 比如需要的参数是caseNo,但是传了一个case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果自己改动过了mapper的xml,下次重新自动生成会覆盖嘛?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -474,7 +506,7 @@
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,70 +516,107 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9" xr:uid="{33B24344-07D2-4B41-AC47-6DD319D69BFB}"/>
+  <autoFilter ref="A1:C11" xr:uid="{33B24344-07D2-4B41-AC47-6DD319D69BFB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Todo-List.xlsx
+++ b/Todo-List.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781AEF2-B8F2-43CB-B6F2-1C470B4D3652}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16160" windowHeight="8510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,14 +13,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,11 +102,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果传输错误的参数过来,查不到那我该如何友好提示, 比如需要的参数是caseNo,但是传了一个case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果自己改动过了mapper的xml,下次重新自动生成会覆盖嘛?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有做细节的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRequest测试逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,16 +511,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,6 +570,12 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -564,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,9 +601,6 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -588,13 +609,19 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,21 +629,29 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C11" xr:uid="{33B24344-07D2-4B41-AC47-6DD319D69BFB}"/>
+  <autoFilter ref="A1:C12" xr:uid="{33B24344-07D2-4B41-AC47-6DD319D69BFB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
